--- a/colbert/output/Results_colbert_avg_ingredients_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_avg_ingredients_extraQuestions.xlsx
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -4077,11 +4077,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -5502,11 +5502,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -5527,11 +5527,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6327,11 +6327,11 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -7027,11 +7027,11 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -7277,11 +7277,11 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -7302,11 +7302,11 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -7327,11 +7327,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -8752,11 +8752,11 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -8827,11 +8827,11 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -9302,11 +9302,11 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -9327,11 +9327,11 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -10002,11 +10002,11 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -10027,11 +10027,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -10052,11 +10052,11 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -10077,11 +10077,11 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -12302,11 +12302,11 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -12327,11 +12327,11 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -13752,11 +13752,11 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>8559</v>
+        <v>38276</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -13802,11 +13802,11 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>64045</v>
+        <v>67888</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>backyard style  barbecued ribs</t>
         </is>
       </c>
     </row>
@@ -13827,11 +13827,11 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>67888</v>
+        <v>64045</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>backyard style  barbecued ribs</t>
+          <t>some like it hot</t>
         </is>
       </c>
     </row>
@@ -14502,11 +14502,11 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -14527,11 +14527,11 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -17052,11 +17052,11 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -17077,11 +17077,11 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -18252,11 +18252,11 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -18277,11 +18277,11 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>83133</v>
+        <v>64302</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -21252,11 +21252,11 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -21277,11 +21277,11 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -21302,11 +21302,11 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -21327,11 +21327,11 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -23502,11 +23502,11 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -23527,11 +23527,11 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -23552,11 +23552,11 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -25502,11 +25502,11 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -25527,11 +25527,11 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -25577,11 +25577,11 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -25802,11 +25802,11 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>93959</v>
+        <v>26835</v>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -25827,11 +25827,11 @@
         </is>
       </c>
       <c r="D1016" t="n">
-        <v>26835</v>
+        <v>75452</v>
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -28777,11 +28777,11 @@
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -28802,11 +28802,11 @@
         </is>
       </c>
       <c r="D1135" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -28827,11 +28827,11 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>39363</v>
+        <v>35653</v>
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
